--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/33.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/33.xlsx
@@ -479,13 +479,13 @@
         <v>-22.8102893711675</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.997844949449433</v>
+        <v>-8.720628529078725</v>
       </c>
       <c r="F2" t="n">
-        <v>6.021513947550295</v>
+        <v>6.942478898648673</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.85451960911253</v>
+        <v>-16.52645586785843</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-22.5865390409621</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.240982105523129</v>
+        <v>-8.840423100080519</v>
       </c>
       <c r="F3" t="n">
-        <v>5.952700803814182</v>
+        <v>6.899405222299395</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.37617923248722</v>
+        <v>-16.0292494828382</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-22.03235608712818</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.29985819140237</v>
+        <v>-8.84929968140721</v>
       </c>
       <c r="F4" t="n">
-        <v>6.065556454309862</v>
+        <v>6.983326883514859</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.59164916930247</v>
+        <v>-15.1633114805836</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-21.16685326481261</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.23899525884506</v>
+        <v>-9.871049179781195</v>
       </c>
       <c r="F5" t="n">
-        <v>6.141570364608923</v>
+        <v>7.077853310032121</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.58815034108985</v>
+        <v>-13.99046371511325</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-20.00540294637562</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.85193760098615</v>
+        <v>-10.50526651404009</v>
       </c>
       <c r="F6" t="n">
-        <v>6.296399938015176</v>
+        <v>7.260019611771898</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.86425073236513</v>
+        <v>-13.22142184619026</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-18.61129502821662</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.69463676569669</v>
+        <v>-11.39861979844527</v>
       </c>
       <c r="F7" t="n">
-        <v>6.611898251895091</v>
+        <v>7.593140165276775</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.50489002061156</v>
+        <v>-11.70353953162907</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-17.04480021520308</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.50931840232594</v>
+        <v>-12.17174646585488</v>
       </c>
       <c r="F8" t="n">
-        <v>6.905218204761121</v>
+        <v>7.918379152470934</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.74341550273109</v>
+        <v>-10.89302124730349</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-15.37201995246414</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.25821121717551</v>
+        <v>-13.01363390778923</v>
       </c>
       <c r="F9" t="n">
-        <v>6.953319325401623</v>
+        <v>7.978551376331508</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.548978529874734</v>
+        <v>-9.452710827079523</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-13.66516456627242</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.30916964318939</v>
+        <v>-14.07496143765375</v>
       </c>
       <c r="F10" t="n">
-        <v>7.127656430042047</v>
+        <v>8.077372078180856</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.879961854662533</v>
+        <v>-8.718481391412682</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.9674985384855</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.18745368702374</v>
+        <v>-14.98132847108361</v>
       </c>
       <c r="F11" t="n">
-        <v>7.36190391248621</v>
+        <v>8.326911370344154</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.056521467432171</v>
+        <v>-7.752321810904665</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.33894746163707</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.45833661617293</v>
+        <v>-16.35198784018959</v>
       </c>
       <c r="F12" t="n">
-        <v>7.286439878906501</v>
+        <v>8.214527042750777</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.626007273087692</v>
+        <v>-7.268299374846053</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.799236447030582</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.43481293132023</v>
+        <v>-17.40873306405951</v>
       </c>
       <c r="F13" t="n">
-        <v>7.209980830310821</v>
+        <v>8.16873016741042</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.394613912663026</v>
+        <v>-7.145271005042352</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.3922804336285</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.84536454718495</v>
+        <v>-18.86726796983916</v>
       </c>
       <c r="F14" t="n">
-        <v>7.190290006836864</v>
+        <v>8.060221161458195</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.470074762888856</v>
+        <v>-6.119934215689734</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.128521254778184</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.94138667958005</v>
+        <v>-20.03171047688512</v>
       </c>
       <c r="F15" t="n">
-        <v>7.207859877250461</v>
+        <v>8.099052931686755</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.013847285763227</v>
+        <v>-5.626812629156122</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.018468580266118</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.90024075510238</v>
+        <v>-21.0224574021299</v>
       </c>
       <c r="F16" t="n">
-        <v>7.129279875594421</v>
+        <v>7.934744531023092</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.401913050940951</v>
+        <v>-4.996549170355428</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.061820107984751</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.99090813563522</v>
+        <v>-22.21091119258758</v>
       </c>
       <c r="F17" t="n">
-        <v>7.453052524870307</v>
+        <v>8.300150703335667</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.510971933612529</v>
+        <v>-5.185615115692795</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.243128559268061</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.85794589132853</v>
+        <v>-23.12861616027837</v>
       </c>
       <c r="F18" t="n">
-        <v>7.869963816562231</v>
+        <v>8.737774018123202</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.928652487818237</v>
+        <v>-4.553584196008469</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.559088243700009</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.49910214609353</v>
+        <v>-23.74484467043273</v>
       </c>
       <c r="F19" t="n">
-        <v>8.167106721858046</v>
+        <v>9.032193724427938</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.108603007023883</v>
+        <v>-3.6642502485757</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.98718855335911</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.39076652343213</v>
+        <v>-24.6919418580032</v>
       </c>
       <c r="F20" t="n">
-        <v>8.381453903982786</v>
+        <v>9.254867611160016</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.698512805112498</v>
+        <v>-3.332805509834563</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.524513808492642</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.49972066768098</v>
+        <v>-24.67884955516147</v>
       </c>
       <c r="F21" t="n">
-        <v>8.21279885877567</v>
+        <v>9.050103994715419</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.698473528203972</v>
+        <v>-3.322816082766327</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.151800101861213</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.18811395109893</v>
+        <v>-25.35445165870306</v>
       </c>
       <c r="F22" t="n">
-        <v>8.627720120435653</v>
+        <v>9.471754700036049</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.120543187215538</v>
+        <v>-3.854952731768282</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.8632841383676793</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.28054560916152</v>
+        <v>-25.4198215267918</v>
       </c>
       <c r="F23" t="n">
-        <v>8.28386387860056</v>
+        <v>9.015645053635996</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.977706163212306</v>
+        <v>-3.746993602535409</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.6532775472605435</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.70028483826725</v>
+        <v>-25.84134130908401</v>
       </c>
       <c r="F24" t="n">
-        <v>8.269095760995093</v>
+        <v>8.980662420442904</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.882944075243893</v>
+        <v>-3.667379308954873</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.5180555230555167</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.74185289978974</v>
+        <v>-25.77826259399258</v>
       </c>
       <c r="F25" t="n">
-        <v>8.423611119133144</v>
+        <v>9.128788734794194</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.747687494586021</v>
+        <v>-3.541261155680526</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.4603962890921079</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.05496841455246</v>
+        <v>-26.12748667999278</v>
       </c>
       <c r="F26" t="n">
-        <v>8.326230570596385</v>
+        <v>9.028239848969736</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.581781832975668</v>
+        <v>-3.359212684666325</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.4744367834336544</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.02731747095073</v>
+        <v>-26.13751538396954</v>
       </c>
       <c r="F27" t="n">
-        <v>8.225131808052577</v>
+        <v>8.883308056511829</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.724501026253324</v>
+        <v>-3.56063776388628</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.557515057501579</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.94191637951415</v>
+        <v>-26.05437926092458</v>
       </c>
       <c r="F28" t="n">
-        <v>8.087505520580352</v>
+        <v>8.79820808804061</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.933572010332848</v>
+        <v>-3.851391625395333</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.6960931801332295</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.78826511336365</v>
+        <v>-25.78622271412035</v>
       </c>
       <c r="F29" t="n">
-        <v>8.018666192238557</v>
+        <v>8.724000915533706</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.75928727490379</v>
+        <v>-3.671804507315377</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.8770408555074669</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.69431474817143</v>
+        <v>-25.70402923687999</v>
       </c>
       <c r="F30" t="n">
-        <v>8.097900809036682</v>
+        <v>8.834264290066724</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.89233125638141</v>
+        <v>-3.795029261661703</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.085165519569728</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.37735009637324</v>
+        <v>-25.41738635846324</v>
       </c>
       <c r="F31" t="n">
-        <v>7.950848063518415</v>
+        <v>8.653642880062272</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.296634660436753</v>
+        <v>-4.249305985663914</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.304050604989766</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.93869248966121</v>
+        <v>-24.94645622524635</v>
       </c>
       <c r="F32" t="n">
-        <v>8.105023021782582</v>
+        <v>8.866445170451685</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.187693608490751</v>
+        <v>-4.10963729894838</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.523268849549995</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.79788477259844</v>
+        <v>-24.83343037481373</v>
       </c>
       <c r="F33" t="n">
-        <v>8.132804888412725</v>
+        <v>8.939264558857367</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.322452681640637</v>
+        <v>-4.252199384591935</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.731568295725404</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.4166107292417</v>
+        <v>-24.46369065026055</v>
       </c>
       <c r="F34" t="n">
-        <v>8.247310169066461</v>
+        <v>9.085008074091462</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.347563718491068</v>
+        <v>-4.253220584213589</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.924587031051344</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.22764952232707</v>
+        <v>-24.26206918649796</v>
       </c>
       <c r="F35" t="n">
-        <v>8.148515651822796</v>
+        <v>8.969612516844487</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.493071572274011</v>
+        <v>-4.423394336550345</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.098568838995328</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.8993338439651</v>
+        <v>-23.97593690789204</v>
       </c>
       <c r="F36" t="n">
-        <v>8.2781032653502</v>
+        <v>9.151778818584264</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.408940434213079</v>
+        <v>-4.267857778790639</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.253472722000309</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.27708287450355</v>
+        <v>-23.3155349679497</v>
       </c>
       <c r="F37" t="n">
-        <v>8.245686723514087</v>
+        <v>9.079456937686569</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.500743661739262</v>
+        <v>-4.363758897106282</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.390274293921028</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.82550316488673</v>
+        <v>-22.86949330243493</v>
       </c>
       <c r="F38" t="n">
-        <v>8.240266510137612</v>
+        <v>9.145861097699804</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.513901426095197</v>
+        <v>-4.379718414270346</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.508300758258735</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.6459553237153</v>
+        <v>-22.71417931382353</v>
       </c>
       <c r="F39" t="n">
-        <v>8.38247510360444</v>
+        <v>9.281863939619655</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.763689472012489</v>
+        <v>-4.68330273256429</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.609215709619551</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.94841052061097</v>
+        <v>-22.02146557046781</v>
       </c>
       <c r="F40" t="n">
-        <v>8.661079308076371</v>
+        <v>9.621583013756762</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.711071506891592</v>
+        <v>-4.590386659296561</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.69019306537001</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.28087327561989</v>
+        <v>-21.3254001975846</v>
       </c>
       <c r="F41" t="n">
-        <v>8.644137868199177</v>
+        <v>9.5894021333718</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.740987418884936</v>
+        <v>-4.636628672933537</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.751487273555913</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.5631008646251</v>
+        <v>-20.63942899019236</v>
       </c>
       <c r="F42" t="n">
-        <v>8.610490649895942</v>
+        <v>9.54837085626583</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.056276255919383</v>
+        <v>-4.976819069972947</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.789331038099409</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.76668299046006</v>
+        <v>-19.72698712824394</v>
       </c>
       <c r="F43" t="n">
-        <v>8.727116883610037</v>
+        <v>9.685106867144817</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.215583396897506</v>
+        <v>-5.129854997889884</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.80280073105006</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.0819293672321</v>
+        <v>-19.08609271953577</v>
       </c>
       <c r="F44" t="n">
-        <v>8.459693505764941</v>
+        <v>9.375709566389148</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.017876531684601</v>
+        <v>-4.897374976329353</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.790589176421403</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.55123287154274</v>
+        <v>-18.55484634712705</v>
       </c>
       <c r="F45" t="n">
-        <v>8.492031493784005</v>
+        <v>9.474661191266913</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.147136837640962</v>
+        <v>-5.029842896481938</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.753489096009009</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.90964457078395</v>
+        <v>-17.9487250947665</v>
       </c>
       <c r="F46" t="n">
-        <v>8.557493007992635</v>
+        <v>9.471414300162165</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.273071698675525</v>
+        <v>-5.156916787863731</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.696223323605245</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.7616884563696</v>
+        <v>-17.84173479594392</v>
       </c>
       <c r="F47" t="n">
-        <v>8.436232099072567</v>
+        <v>9.354971358687854</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.57377571034429</v>
+        <v>-5.504242489951882</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.623013316068267</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.11464066532582</v>
+        <v>-17.14082527100927</v>
       </c>
       <c r="F48" t="n">
-        <v>8.351472530475233</v>
+        <v>9.231720419735844</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.670409997619069</v>
+        <v>-5.600353085112993</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.545633798874452</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.25062723158895</v>
+        <v>-16.23498192969308</v>
       </c>
       <c r="F49" t="n">
-        <v>8.290200553175955</v>
+        <v>9.162252660857645</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.845637378852731</v>
+        <v>-5.772399036756116</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.472158549824357</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.71283470775937</v>
+        <v>-15.66015128112426</v>
       </c>
       <c r="F50" t="n">
-        <v>8.027176189085678</v>
+        <v>8.912634814877295</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.096983408808188</v>
+        <v>-6.055546270314125</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.417730843149658</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.98676177676292</v>
+        <v>-14.93189193555325</v>
       </c>
       <c r="F51" t="n">
-        <v>7.845769240910722</v>
+        <v>8.67616164095004</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.035606693086176</v>
+        <v>-5.962525458623661</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.392375193740108</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.31838662438996</v>
+        <v>-14.21459084746076</v>
       </c>
       <c r="F52" t="n">
-        <v>7.706440954069073</v>
+        <v>8.492555185897674</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.172643826930523</v>
+        <v>-6.05944777656096</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.408699159878312</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.82493773028531</v>
+        <v>-13.73029347304247</v>
       </c>
       <c r="F53" t="n">
-        <v>7.751714137295762</v>
+        <v>8.586872135569468</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.236730649340772</v>
+        <v>-6.091720303065815</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.477256838628782</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.41881449613497</v>
+        <v>-13.32680179176332</v>
       </c>
       <c r="F54" t="n">
-        <v>7.538964216117713</v>
+        <v>8.368204493506958</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.45638021411641</v>
+        <v>-6.318727742038503</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.601209512613588</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.83212222119154</v>
+        <v>-12.74106525492733</v>
       </c>
       <c r="F55" t="n">
-        <v>7.487013958441744</v>
+        <v>8.257365057648906</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.763813669445822</v>
+        <v>-6.708799812904889</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.78696938383323</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.52607654996335</v>
+        <v>-12.40578447145357</v>
       </c>
       <c r="F56" t="n">
-        <v>7.564546575870446</v>
+        <v>8.342491210725809</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.705801675554134</v>
+        <v>-6.604231590108023</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.027258793937112</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.06753173523474</v>
+        <v>-11.95935003685355</v>
       </c>
       <c r="F57" t="n">
-        <v>7.20330375586154</v>
+        <v>7.942207143642876</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.942589064749591</v>
+        <v>-6.828555106998158</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.320510934783564</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.61012595085335</v>
+        <v>-11.47888870716789</v>
       </c>
       <c r="F58" t="n">
-        <v>7.332341492669593</v>
+        <v>8.124713845256538</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.722196422065854</v>
+        <v>-7.722890314116465</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-3.653975103877208</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.59255608043976</v>
+        <v>-11.55263764907533</v>
       </c>
       <c r="F59" t="n">
-        <v>7.199742649488591</v>
+        <v>7.977949130400789</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.750056842513047</v>
+        <v>-7.695331016634632</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.019634418330768</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.41138479371595</v>
+        <v>-11.39783426027476</v>
       </c>
       <c r="F60" t="n">
-        <v>7.047898121130252</v>
+        <v>7.802407533898926</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.980232618773432</v>
+        <v>-7.951167706464801</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.407530089421643</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.42775017226811</v>
+        <v>-11.44761119567901</v>
       </c>
       <c r="F61" t="n">
-        <v>6.866883942040547</v>
+        <v>7.592118965655121</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.435491265488773</v>
+        <v>-8.424951961701185</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.806453221995224</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.55829352390296</v>
+        <v>-11.62708048303339</v>
       </c>
       <c r="F62" t="n">
-        <v>6.920300537634789</v>
+        <v>7.707881107381663</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.660770520486354</v>
+        <v>-8.709473887057575</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.214494468527464</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.1748199736688</v>
+        <v>-11.22256760213258</v>
       </c>
       <c r="F63" t="n">
-        <v>7.237684143123913</v>
+        <v>8.105153944810999</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.735907246495019</v>
+        <v>-8.758098699811745</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.620458525833522</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.9036914741195</v>
+        <v>-10.86965148673101</v>
       </c>
       <c r="F64" t="n">
-        <v>7.097465579689027</v>
+        <v>7.938960252538128</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.965768807487205</v>
+        <v>-9.056040235580905</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.02660051639489</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.92505811235719</v>
+        <v>-10.86269947392205</v>
       </c>
       <c r="F65" t="n">
-        <v>7.078219894511689</v>
+        <v>7.934299392726474</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.028101261316662</v>
+        <v>-9.103630756410579</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.423829791219624</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.6544663972244</v>
+        <v>-10.51970732407451</v>
       </c>
       <c r="F66" t="n">
-        <v>6.904642143436085</v>
+        <v>7.698664126181088</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.431867880955494</v>
+        <v>-9.567111369310524</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.813124623498289</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.88012532900439</v>
+        <v>-10.75978088128324</v>
       </c>
       <c r="F67" t="n">
-        <v>6.668980692285016</v>
+        <v>7.476383008534262</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.478306279135097</v>
+        <v>-9.570999783254518</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.190075441038363</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.03025476569046</v>
+        <v>-10.99059818038288</v>
       </c>
       <c r="F68" t="n">
-        <v>6.619439418331925</v>
+        <v>7.427051211426638</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.274917354488881</v>
+        <v>-9.473252650238191</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.552884542127358</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.84201363543213</v>
+        <v>-10.79891377447716</v>
       </c>
       <c r="F69" t="n">
-        <v>6.58542561554912</v>
+        <v>7.358892682832613</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.270780186790896</v>
+        <v>-9.397605324418697</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.905351841058335</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.12120699353193</v>
+        <v>-11.07771436349172</v>
       </c>
       <c r="F70" t="n">
-        <v>6.418315462077329</v>
+        <v>7.203827447975209</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.412124688270172</v>
+        <v>-9.617726212096636</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.240708206129936</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.06282841516068</v>
+        <v>-11.02996673502794</v>
       </c>
       <c r="F71" t="n">
-        <v>6.03293043562828</v>
+        <v>6.751174169525372</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.358760461887297</v>
+        <v>-9.546870669117215</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.568269268168981</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.10571879927017</v>
+        <v>-11.03682710171701</v>
       </c>
       <c r="F72" t="n">
-        <v>6.300615659530211</v>
+        <v>7.080838355080035</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.664688302389909</v>
+        <v>-9.892258710384791</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.880929614322552</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.53138884156321</v>
+        <v>-11.49442927064102</v>
       </c>
       <c r="F73" t="n">
-        <v>6.441515022712867</v>
+        <v>7.258500904642258</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.358040385231</v>
+        <v>-9.499109948350599</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.186576074099539</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.68729198380248</v>
+        <v>-11.64766158310058</v>
       </c>
       <c r="F74" t="n">
-        <v>6.366103358344525</v>
+        <v>7.123702554583846</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.445902829601824</v>
+        <v>-9.620410134179192</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.478782598413984</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.20972723639872</v>
+        <v>-12.19931885563955</v>
       </c>
       <c r="F75" t="n">
-        <v>6.331199278968484</v>
+        <v>7.134490612125428</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.615998028121529</v>
+        <v>-9.884076021108713</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.759780353597977</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.09891398514635</v>
+        <v>-12.00324852828186</v>
       </c>
       <c r="F76" t="n">
-        <v>6.227272579010862</v>
+        <v>7.023834468507159</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.666704517027535</v>
+        <v>-9.979309431979427</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.02788579730156</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.79240017436974</v>
+        <v>-12.78224054736456</v>
       </c>
       <c r="F77" t="n">
-        <v>6.188231331936835</v>
+        <v>6.936665916186947</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.393507433629237</v>
+        <v>-9.693517553247389</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.27553746535111</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.48695993242615</v>
+        <v>-13.47077784611378</v>
       </c>
       <c r="F78" t="n">
-        <v>6.221276304309352</v>
+        <v>7.006343151910613</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.7773182003834</v>
+        <v>-8.980000140676161</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.50492226602226</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.73223113386305</v>
+        <v>-13.62110366734248</v>
       </c>
       <c r="F79" t="n">
-        <v>6.40255232945589</v>
+        <v>7.203199017438807</v>
       </c>
       <c r="G79" t="n">
-        <v>-8.98295900111839</v>
+        <v>-9.331135702891254</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.70023173181348</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.32968528174237</v>
+        <v>-14.24386523661486</v>
       </c>
       <c r="F80" t="n">
-        <v>6.401374022200135</v>
+        <v>7.170389706517441</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.396161987752228</v>
+        <v>-8.639940666665167</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.85923848587723</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.88989182803699</v>
+        <v>-14.83036112701566</v>
       </c>
       <c r="F81" t="n">
-        <v>6.498466540074376</v>
+        <v>7.341637027687218</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.223867282355114</v>
+        <v>-8.513992713327763</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.9604345076139</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.74061657438951</v>
+        <v>-15.6790827510334</v>
       </c>
       <c r="F82" t="n">
-        <v>6.554606334659697</v>
+        <v>7.42804622644261</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.128201825490621</v>
+        <v>-8.394145773114602</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-10.99579173559405</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.72244764139907</v>
+        <v>-16.67752795034911</v>
       </c>
       <c r="F83" t="n">
-        <v>6.694615421249115</v>
+        <v>7.576670048301884</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.989816184453576</v>
+        <v>-8.300326330950794</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-10.94668707130534</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.5900876430231</v>
+        <v>-17.49638603158487</v>
       </c>
       <c r="F84" t="n">
-        <v>6.652667682944226</v>
+        <v>7.556953040222245</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.684817897452726</v>
+        <v>-7.965019362871347</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-10.80272430269045</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.44574818754695</v>
+        <v>-18.37490573687037</v>
       </c>
       <c r="F85" t="n">
-        <v>6.828837709982492</v>
+        <v>7.710447198738641</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.439140834627736</v>
+        <v>-7.660073445081863</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-10.5573988553223</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.73435809474384</v>
+        <v>-19.66085790659039</v>
       </c>
       <c r="F86" t="n">
-        <v>6.720093042579115</v>
+        <v>7.569992973852604</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.472932068262232</v>
+        <v>-7.784371768261211</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-10.2031384430021</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.75766557715599</v>
+        <v>-20.68565791152649</v>
       </c>
       <c r="F87" t="n">
-        <v>6.777332590603141</v>
+        <v>7.714977135521878</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.933267345126283</v>
+        <v>-7.147418142708396</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-9.748973732285718</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.07497381218194</v>
+        <v>-21.91781380886986</v>
       </c>
       <c r="F88" t="n">
-        <v>7.104718715463343</v>
+        <v>8.07451795616136</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.01637728356556</v>
+        <v>-7.202693845306164</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-9.197993354234162</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.7559731278482</v>
+        <v>-23.67531145004033</v>
       </c>
       <c r="F89" t="n">
-        <v>6.928339211579609</v>
+        <v>7.894341684453526</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.717689486534421</v>
+        <v>-6.894579590228982</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.573713561372662</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.99802680613991</v>
+        <v>-24.77646576514938</v>
       </c>
       <c r="F90" t="n">
-        <v>7.25033130766902</v>
+        <v>8.268729176515524</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.080228444524658</v>
+        <v>-7.316256480155295</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.888730798043288</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.72560853531703</v>
+        <v>-26.52486425584485</v>
       </c>
       <c r="F91" t="n">
-        <v>7.331451216076355</v>
+        <v>8.314997374758184</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.665634490435719</v>
+        <v>-6.838243411101034</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.171241651588427</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.72600767111004</v>
+        <v>-28.53429708059865</v>
       </c>
       <c r="F92" t="n">
-        <v>7.042923046050396</v>
+        <v>7.987454142263881</v>
       </c>
       <c r="G92" t="n">
-        <v>-6.880256610920133</v>
+        <v>-7.099605052730412</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.439963546584651</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.55752919254763</v>
+        <v>-30.40067031220091</v>
       </c>
       <c r="F93" t="n">
-        <v>7.085027891989387</v>
+        <v>8.044274736596973</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.171740458034444</v>
+        <v>-6.247911475967606</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.713884190276412</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.51053419205359</v>
+        <v>-32.37039418243575</v>
       </c>
       <c r="F94" t="n">
-        <v>7.065572729966582</v>
+        <v>7.993869370656327</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.525991988325868</v>
+        <v>-6.697213124889962</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.010960165024071</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.85632136911417</v>
+        <v>-34.80811551005094</v>
       </c>
       <c r="F95" t="n">
-        <v>7.026740959738023</v>
+        <v>8.036419354891937</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.903295880567692</v>
+        <v>-5.938671282846037</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.334269648629589</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.2826654855599</v>
+        <v>-37.26361618492519</v>
       </c>
       <c r="F96" t="n">
-        <v>6.758244013059905</v>
+        <v>7.740664233697345</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.823498294747372</v>
+        <v>-5.842023903268415</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.696149885921144</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.2443114049414</v>
+        <v>-39.21614986152885</v>
       </c>
       <c r="F97" t="n">
-        <v>6.707079293554439</v>
+        <v>7.708509537918066</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.439357037068288</v>
+        <v>-5.386136826016672</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.08204070195346</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.65984127923986</v>
+        <v>-41.6188754636481</v>
       </c>
       <c r="F98" t="n">
-        <v>6.627478092276744</v>
+        <v>7.647394668252889</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.597237117036663</v>
+        <v>-5.528188311849399</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.504076176191359</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.06982001713342</v>
+        <v>-44.10006323669781</v>
       </c>
       <c r="F99" t="n">
-        <v>6.458194616533226</v>
+        <v>7.447815603733616</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.357215929039299</v>
+        <v>-5.288900292811172</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.938670811216385</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.18243328058287</v>
+        <v>-46.21961542065337</v>
       </c>
       <c r="F100" t="n">
-        <v>6.22627756399489</v>
+        <v>7.171463275350463</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.394476622926851</v>
+        <v>-5.303458933571171</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.41042749991622</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.57547057859924</v>
+        <v>-48.64551439880248</v>
       </c>
       <c r="F101" t="n">
-        <v>6.191844807521151</v>
+        <v>7.206157877881036</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.410658709239224</v>
+        <v>-5.276632805048474</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.8807513202468888</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.06823194736105</v>
+        <v>-51.20910512593802</v>
       </c>
       <c r="F102" t="n">
-        <v>5.462813016082476</v>
+        <v>6.347198073041072</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.129566967227365</v>
+        <v>-4.949469249336582</v>
       </c>
     </row>
   </sheetData>
